--- a/ИФМиКН/3202.xlsx
+++ b/ИФМиКН/3202.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Даниил\Desktop\Подразделения\ИФМиКН\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Даниил\Desktop\bot\ИФМиКН\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3504E3C-4CFE-4EAA-AD39-9638294EC2CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B67CC2D-AA19-4B80-845A-3BB67F213BF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11748" yWindow="468" windowWidth="23040" windowHeight="8880" xr2:uid="{5BCC76EF-39F2-4B99-9A1C-164BBDE54DDB}"/>
+    <workbookView xWindow="0" yWindow="1152" windowWidth="23040" windowHeight="8880" xr2:uid="{5BCC76EF-39F2-4B99-9A1C-164BBDE54DDB}"/>
   </bookViews>
   <sheets>
     <sheet name="3001" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="39">
   <si>
     <t>Предмет</t>
   </si>
@@ -57,70 +57,16 @@
     <t>Должность</t>
   </si>
   <si>
-    <t>НАПОМИНАЛКА:</t>
-  </si>
-  <si>
-    <t>Дни недели:</t>
-  </si>
-  <si>
-    <t>1 - понедельник</t>
-  </si>
-  <si>
-    <t>2 - вторник</t>
-  </si>
-  <si>
-    <t>3 - среда</t>
-  </si>
-  <si>
-    <t>4 - четверг</t>
-  </si>
-  <si>
-    <t>5 - пятница</t>
-  </si>
-  <si>
-    <t>6 - суббота</t>
-  </si>
-  <si>
     <t>Вид пары</t>
   </si>
   <si>
-    <t>Вид пары:</t>
-  </si>
-  <si>
-    <t>0 - лекция</t>
-  </si>
-  <si>
-    <t>1 - семинар</t>
-  </si>
-  <si>
-    <t>Не забудь указать номер группы в названии листа!</t>
-  </si>
-  <si>
     <t>доц.</t>
   </si>
   <si>
     <t>Абрамов Владимир Викторович</t>
   </si>
   <si>
-    <t>2 - лаба</t>
-  </si>
-  <si>
     <t>проф.</t>
-  </si>
-  <si>
-    <t>0 - по знаменателю</t>
-  </si>
-  <si>
-    <t>1 - по числителю</t>
-  </si>
-  <si>
-    <t>2 - один и тот же предмет и по числителю, и по знаменателю</t>
-  </si>
-  <si>
-    <t>3 - кураторский час</t>
-  </si>
-  <si>
-    <t>4 - для физ-ры</t>
   </si>
   <si>
     <t>96а</t>
@@ -278,26 +224,26 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -616,7 +562,7 @@
   <dimension ref="A1:R22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+      <selection activeCell="J2" sqref="J2:P14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -654,12 +600,12 @@
         <v>5</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -671,30 +617,28 @@
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="F2" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="G2" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
-      <c r="J2" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5"/>
-      <c r="P2" s="5"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="9"/>
+      <c r="P2" s="9"/>
     </row>
     <row r="3" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -709,25 +653,25 @@
         <v>36</v>
       </c>
       <c r="F3" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="G3" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
-      <c r="P3" s="5"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
+      <c r="O3" s="9"/>
+      <c r="P3" s="9"/>
     </row>
     <row r="4" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -742,25 +686,25 @@
         <v>36</v>
       </c>
       <c r="F4" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="G4" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
-      <c r="O4" s="5"/>
-      <c r="P4" s="5"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="9"/>
+      <c r="P4" s="9"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -772,34 +716,28 @@
         <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="G5" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="H5">
         <v>1</v>
       </c>
-      <c r="J5" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="K5" s="7"/>
-      <c r="L5" s="8" t="s">
-        <v>24</v>
-      </c>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="8"/>
       <c r="M5" s="8"/>
-      <c r="N5" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="O5" s="9"/>
+      <c r="N5" s="11"/>
+      <c r="O5" s="11"/>
       <c r="P5" s="3"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -814,31 +752,25 @@
         <v>36</v>
       </c>
       <c r="F6" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="G6" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="H6">
         <v>1</v>
       </c>
-      <c r="J6" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="K6" s="6"/>
-      <c r="L6" s="8" t="s">
-        <v>25</v>
-      </c>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="8"/>
       <c r="M6" s="8"/>
-      <c r="N6" s="8" t="s">
-        <v>17</v>
-      </c>
+      <c r="N6" s="8"/>
       <c r="O6" s="8"/>
       <c r="P6" s="1"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -853,31 +785,25 @@
         <v>52</v>
       </c>
       <c r="F7" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="G7" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="H7">
         <v>1</v>
       </c>
-      <c r="J7" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="K7" s="6"/>
-      <c r="L7" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="M7" s="11"/>
-      <c r="N7" s="8" t="s">
-        <v>18</v>
-      </c>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="8"/>
       <c r="O7" s="8"/>
       <c r="P7" s="1"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="B8">
         <v>2</v>
@@ -892,29 +818,25 @@
         <v>27</v>
       </c>
       <c r="F8" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="G8" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="H8">
         <v>1</v>
       </c>
-      <c r="J8" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K8" s="6"/>
-      <c r="L8" s="11"/>
-      <c r="M8" s="11"/>
-      <c r="N8" s="8" t="s">
-        <v>22</v>
-      </c>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="8"/>
       <c r="O8" s="8"/>
       <c r="P8" s="1"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="B9">
         <v>2</v>
@@ -926,32 +848,28 @@
         <v>0</v>
       </c>
       <c r="E9" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="F9" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="G9" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="H9">
         <v>1</v>
       </c>
-      <c r="J9" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="K9" s="6"/>
-      <c r="L9" s="11"/>
-      <c r="M9" s="11"/>
-      <c r="N9" s="8" t="s">
-        <v>27</v>
-      </c>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="8"/>
       <c r="O9" s="8"/>
       <c r="P9" s="1"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="B10">
         <v>2</v>
@@ -966,29 +884,25 @@
         <v>36</v>
       </c>
       <c r="F10" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="G10" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
-      <c r="J10" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="K10" s="6"/>
-      <c r="L10" s="11"/>
-      <c r="M10" s="11"/>
-      <c r="N10" s="8" t="s">
-        <v>28</v>
-      </c>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="8"/>
       <c r="O10" s="8"/>
       <c r="P10" s="1"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="B11">
         <v>2</v>
@@ -1000,21 +914,19 @@
         <v>0</v>
       </c>
       <c r="E11" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="F11" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="G11" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
-      <c r="J11" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="K11" s="6"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
       <c r="L11" s="2"/>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
@@ -1023,7 +935,7 @@
     </row>
     <row r="12" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="B12">
         <v>2</v>
@@ -1038,27 +950,25 @@
         <v>52</v>
       </c>
       <c r="F12" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="G12" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="H12">
         <v>1</v>
       </c>
-      <c r="J12" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="K12" s="10"/>
-      <c r="L12" s="10"/>
-      <c r="M12" s="10"/>
-      <c r="N12" s="10"/>
-      <c r="O12" s="10"/>
-      <c r="P12" s="10"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="6"/>
+      <c r="P12" s="6"/>
     </row>
     <row r="13" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="B13">
         <v>3</v>
@@ -1073,25 +983,25 @@
         <v>23</v>
       </c>
       <c r="F13" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="G13" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
-      <c r="J13" s="10"/>
-      <c r="K13" s="10"/>
-      <c r="L13" s="10"/>
-      <c r="M13" s="10"/>
-      <c r="N13" s="10"/>
-      <c r="O13" s="10"/>
-      <c r="P13" s="10"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="6"/>
+      <c r="O13" s="6"/>
+      <c r="P13" s="6"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="B14">
         <v>3</v>
@@ -1106,27 +1016,27 @@
         <v>23</v>
       </c>
       <c r="F14" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="G14" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
-      <c r="J14" s="10"/>
-      <c r="K14" s="10"/>
-      <c r="L14" s="10"/>
-      <c r="M14" s="10"/>
-      <c r="N14" s="10"/>
-      <c r="O14" s="10"/>
-      <c r="P14" s="10"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="6"/>
+      <c r="O14" s="6"/>
+      <c r="P14" s="6"/>
       <c r="Q14" s="1"/>
       <c r="R14" s="1"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="B15">
         <v>3</v>
@@ -1141,10 +1051,10 @@
         <v>23</v>
       </c>
       <c r="F15" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="G15" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="H15">
         <v>1</v>
@@ -1155,7 +1065,7 @@
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="B16">
         <v>4</v>
@@ -1170,10 +1080,10 @@
         <v>23</v>
       </c>
       <c r="F16" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="G16" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1181,7 +1091,7 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="B17">
         <v>4</v>
@@ -1196,10 +1106,10 @@
         <v>53</v>
       </c>
       <c r="F17" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="G17" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="H17">
         <v>1</v>
@@ -1207,7 +1117,7 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="B18">
         <v>4</v>
@@ -1222,10 +1132,10 @@
         <v>53</v>
       </c>
       <c r="F18" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="G18" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="H18">
         <v>1</v>
@@ -1233,7 +1143,7 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="B19">
         <v>4</v>
@@ -1245,13 +1155,13 @@
         <v>0</v>
       </c>
       <c r="E19" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="F19" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="G19" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="H19">
         <v>3</v>
@@ -1259,7 +1169,7 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="B20">
         <v>5</v>
@@ -1274,10 +1184,10 @@
         <v>23</v>
       </c>
       <c r="F20" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="G20" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="H20">
         <v>1</v>
@@ -1285,7 +1195,7 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="B21">
         <v>5</v>
@@ -1300,10 +1210,10 @@
         <v>41</v>
       </c>
       <c r="F21" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="G21" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="H21">
         <v>2</v>
@@ -1311,7 +1221,7 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="B22">
         <v>5</v>
@@ -1320,13 +1230,13 @@
         <v>4</v>
       </c>
       <c r="E22" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="F22" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="G22" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="H22">
         <v>4</v>
@@ -1334,13 +1244,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="J12:P14"/>
-    <mergeCell ref="L7:M10"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="N10:O10"/>
     <mergeCell ref="J2:P4"/>
     <mergeCell ref="J6:K6"/>
     <mergeCell ref="J7:K7"/>
@@ -1352,6 +1255,13 @@
     <mergeCell ref="N5:O5"/>
     <mergeCell ref="N6:O6"/>
     <mergeCell ref="N7:O7"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="J12:P14"/>
+    <mergeCell ref="L7:M10"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="N10:O10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
